--- a/Mappings/MedicalAid - STU3.xlsx
+++ b/Mappings/MedicalAid - STU3.xlsx
@@ -545,6 +545,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -568,12 +574,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -906,15 +906,15 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
@@ -927,16 +927,16 @@
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="4"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="5" t="s">
         <v>40</v>
       </c>
@@ -947,10 +947,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
@@ -970,10 +970,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
@@ -993,10 +993,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
@@ -1018,10 +1018,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
@@ -1043,10 +1043,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
@@ -1068,10 +1068,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
@@ -1093,10 +1093,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -1148,10 +1148,10 @@
       <c r="I11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="28" t="s">
         <v>51</v>
       </c>
     </row>
